--- a/Collections/РФ/Юбилейные монеты России из недрагоценных металлов 1999 - н.в..xlsx
+++ b/Collections/РФ/Юбилейные монеты России из недрагоценных металлов 1999 - н.в..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AIlyushin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\РФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_9BD470BA7849821AC257EA13C789EAFB4515CA33" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 рубль" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="25 рублей" sheetId="6" r:id="rId6"/>
     <sheet name="Список сайтов-каталогов" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Alex Ilyushin</author>
   </authors>
   <commentList>
-    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{5043B8B0-9A65-4DF5-B818-94517152E12B}">
+    <comment ref="F22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,12 +56,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Alex Ilyushin</author>
   </authors>
   <commentList>
-    <comment ref="F87" authorId="0" shapeId="0" xr:uid="{CFBF1C0F-E945-4F33-A030-F82B190A206F}">
+    <comment ref="F87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,12 +78,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="A17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="314">
   <si>
     <t>Год</t>
   </si>
@@ -1048,18 +1047,12 @@
     <t>Примечание:</t>
   </si>
   <si>
-    <t>1-2-5-10 руб с тиражом</t>
-  </si>
-  <si>
     <t>http://monety-cennye.ru/spisok-jubilejnyh-monet-10-rublej.html</t>
   </si>
   <si>
     <t>10 руб с тиражом и примерными ценами</t>
   </si>
   <si>
-    <t>https://www.cbr.ru/Bank-notes_coins/coins_base/</t>
-  </si>
-  <si>
     <t>Сайт центробанка. Тут можно смотреть планы выпуска</t>
   </si>
   <si>
@@ -1073,13 +1066,67 @@
   </si>
   <si>
     <t>Хороший единый каталог-таблица со списком существующих монет</t>
+  </si>
+  <si>
+    <t>https://www.cbr.ru/Bank-notes_coins/coins/</t>
+  </si>
+  <si>
+    <t>1-2-5-25 руб с тиражом</t>
+  </si>
+  <si>
+    <t>http://www.vitalya-mag-moneti.ru/collection/ubilrossovr/</t>
+  </si>
+  <si>
+    <t>Актуально:</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Отличный единый каталог-таблица с тиражами и списком монет</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>Пятая годовщина референдума о гос. статусе Крыма и Севастополя и воссоединения Крыма с Россией</t>
+  </si>
+  <si>
+    <t>Клин</t>
+  </si>
+  <si>
+    <t>n&lt;5000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Российская Федерация </t>
+  </si>
+  <si>
+    <t>Костромская область</t>
+  </si>
+  <si>
+    <t>n&lt;10 000 000</t>
+  </si>
+  <si>
+    <t>n&lt;5 000 000</t>
+  </si>
+  <si>
+    <t>75-летие Победы в ВОВ</t>
+  </si>
+  <si>
+    <t>75-летие полного освобождения Ленинграда от фашистской блокады</t>
+  </si>
+  <si>
+    <t>Оружие Великой Победы</t>
+  </si>
+  <si>
+    <t>n&lt;1 000 000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1186,6 +1233,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1302,10 +1355,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1469,6 +1523,16 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1497,7 +1561,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="36">
@@ -2128,68 +2193,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="19" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="6" width="6.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" customWidth="1"/>
+    <col min="10" max="19" width="5.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="67" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="65"/>
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="64"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1">
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1999</v>
       </c>
@@ -2221,7 +2286,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2001</v>
       </c>
@@ -2249,7 +2314,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2014</v>
       </c>
@@ -2277,19 +2342,19 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
@@ -2337,7 +2402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2345,54 +2410,54 @@
       <selection pane="topRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="18" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="6" width="6.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="9" max="9" width="6.26953125" customWidth="1"/>
+    <col min="10" max="18" width="5.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="65"/>
+    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="67"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1">
+      <c r="G2" s="71"/>
+    </row>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2000</v>
       </c>
@@ -2420,7 +2485,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2000</v>
       </c>
@@ -2448,7 +2513,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -2477,7 +2542,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2000</v>
       </c>
@@ -2505,7 +2570,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1">
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2000</v>
       </c>
@@ -2533,7 +2598,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1">
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2000</v>
       </c>
@@ -2561,7 +2626,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2000</v>
       </c>
@@ -2589,7 +2654,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2001</v>
       </c>
@@ -2617,7 +2682,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1">
+    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2012</v>
       </c>
@@ -2645,7 +2710,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1">
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2012</v>
       </c>
@@ -2673,7 +2738,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1">
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2012</v>
       </c>
@@ -2701,7 +2766,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1">
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2012</v>
       </c>
@@ -2729,7 +2794,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1">
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2012</v>
       </c>
@@ -2757,7 +2822,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1">
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2012</v>
       </c>
@@ -2785,7 +2850,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1">
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2012</v>
       </c>
@@ -2813,7 +2878,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1">
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2012</v>
       </c>
@@ -2841,7 +2906,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2012</v>
       </c>
@@ -2869,7 +2934,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1">
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2012</v>
       </c>
@@ -2897,7 +2962,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1">
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2012</v>
       </c>
@@ -2925,7 +2990,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1">
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2012</v>
       </c>
@@ -2953,7 +3018,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1">
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2012</v>
       </c>
@@ -2981,7 +3046,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.5" customHeight="1">
+    <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2012</v>
       </c>
@@ -3009,7 +3074,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1">
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>2012</v>
       </c>
@@ -3037,7 +3102,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1">
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>2012</v>
       </c>
@@ -3065,7 +3130,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.5" customHeight="1">
+    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>2012</v>
       </c>
@@ -3093,7 +3158,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1">
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>2017</v>
       </c>
@@ -3121,7 +3186,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>2017</v>
       </c>
@@ -3196,63 +3261,63 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I27" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="18" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="6" width="6.7265625" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+    <col min="9" max="18" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="65"/>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="60"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1">
+      <c r="G2" s="64"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -3280,7 +3345,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.5" customHeight="1">
+    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2012</v>
       </c>
@@ -3308,7 +3373,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.5" customHeight="1">
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2012</v>
       </c>
@@ -3336,7 +3401,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.5" customHeight="1">
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2012</v>
       </c>
@@ -3364,7 +3429,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1">
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2012</v>
       </c>
@@ -3392,7 +3457,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>2012</v>
       </c>
@@ -3420,7 +3485,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.5" customHeight="1">
+    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>2012</v>
       </c>
@@ -3448,7 +3513,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.5" customHeight="1">
+    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2012</v>
       </c>
@@ -3476,7 +3541,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.5" customHeight="1">
+    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2012</v>
       </c>
@@ -3504,7 +3569,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1">
+    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2012</v>
       </c>
@@ -3532,7 +3597,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1">
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2014</v>
       </c>
@@ -3560,7 +3625,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1">
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2014</v>
       </c>
@@ -3588,7 +3653,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1">
+    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2014</v>
       </c>
@@ -3616,7 +3681,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.5" customHeight="1">
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2014</v>
       </c>
@@ -3644,7 +3709,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1">
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2014</v>
       </c>
@@ -3672,7 +3737,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1">
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2014</v>
       </c>
@@ -3700,7 +3765,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2015</v>
       </c>
@@ -3725,7 +3790,7 @@
       </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1">
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>2014</v>
       </c>
@@ -3749,11 +3814,11 @@
         <v>OK</v>
       </c>
       <c r="H20" s="13" t="str">
-        <f t="shared" ref="H20:H51" si="2">IF(OR(AND(E20&gt;1,E20&lt;&gt;"-"),AND(F20&gt;1,F20&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1">
+        <f t="shared" ref="H20:H52" si="2">IF(OR(AND(E20&gt;1,E20&lt;&gt;"-"),AND(F20&gt;1,F20&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>2014</v>
       </c>
@@ -3781,7 +3846,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1">
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2014</v>
       </c>
@@ -3809,7 +3874,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1">
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>2014</v>
       </c>
@@ -3837,7 +3902,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27" customHeight="1">
+    <row r="24" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>2014</v>
       </c>
@@ -3865,7 +3930,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1">
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>2014</v>
       </c>
@@ -3893,7 +3958,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1">
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>2014</v>
       </c>
@@ -3921,7 +3986,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1">
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>2014</v>
       </c>
@@ -3949,7 +4014,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1">
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>2014</v>
       </c>
@@ -3977,7 +4042,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1">
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>2014</v>
       </c>
@@ -4005,7 +4070,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1">
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>2014</v>
       </c>
@@ -4033,7 +4098,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="27.75" customHeight="1">
+    <row r="31" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>2015</v>
       </c>
@@ -4061,7 +4126,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>2015</v>
       </c>
@@ -4089,7 +4154,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30.75" customHeight="1">
+    <row r="33" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>2015</v>
       </c>
@@ -4117,7 +4182,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30.75" customHeight="1">
+    <row r="34" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>2015</v>
       </c>
@@ -4145,7 +4210,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" customHeight="1">
+    <row r="35" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>2015</v>
       </c>
@@ -4173,7 +4238,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>2015</v>
       </c>
@@ -4201,7 +4266,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.25" customHeight="1">
+    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>2016</v>
       </c>
@@ -4229,7 +4294,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.25" customHeight="1">
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>2016</v>
       </c>
@@ -4257,7 +4322,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.25" customHeight="1">
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>2016</v>
       </c>
@@ -4285,7 +4350,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.25" customHeight="1">
+    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>2016</v>
       </c>
@@ -4313,7 +4378,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.25" customHeight="1">
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>2016</v>
       </c>
@@ -4341,7 +4406,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.25" customHeight="1">
+    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>2016</v>
       </c>
@@ -4369,7 +4434,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.25" customHeight="1">
+    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2016</v>
       </c>
@@ -4397,7 +4462,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.25" customHeight="1">
+    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>2016</v>
       </c>
@@ -4417,7 +4482,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="11" t="str">
-        <f t="shared" ref="G44:G51" si="7">IF(OR(AND(E44&gt;0,F44&gt;0),AND(E44&gt;0,F44="-"),AND(F44&gt;0,E44="-")),"OK",IF(OR(AND(E44=0,F44=0),AND(E44=0,F44="-"),AND(F44=0,E44="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" ref="G44:G52" si="7">IF(OR(AND(E44&gt;0,F44&gt;0),AND(E44&gt;0,F44="-"),AND(F44&gt;0,E44="-")),"OK",IF(OR(AND(E44=0,F44=0),AND(E44=0,F44="-"),AND(F44=0,E44="-")),"!!!!!!!!!!",""))</f>
         <v>!!!!!!!!!!</v>
       </c>
       <c r="H44" s="13" t="str">
@@ -4425,7 +4490,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.25" customHeight="1">
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>2016</v>
       </c>
@@ -4453,7 +4518,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.25" customHeight="1">
+    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>2016</v>
       </c>
@@ -4481,7 +4546,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.25" customHeight="1">
+    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>2016</v>
       </c>
@@ -4509,7 +4574,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.25" customHeight="1">
+    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>2016</v>
       </c>
@@ -4537,7 +4602,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.25" customHeight="1">
+    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>2016</v>
       </c>
@@ -4565,7 +4630,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.25" customHeight="1">
+    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>2016</v>
       </c>
@@ -4593,7 +4658,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="27.75" customHeight="1">
+    <row r="51" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>2016</v>
       </c>
@@ -4617,6 +4682,32 @@
         <v>OK</v>
       </c>
       <c r="H51" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="E52" s="8">
+        <v>2</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+      <c r="H52" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Есть на обмен</v>
       </c>
@@ -4630,27 +4721,27 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G51">
+  <conditionalFormatting sqref="G3:G52">
     <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G51">
+  <conditionalFormatting sqref="G3:G52">
     <cfRule type="containsBlanks" dxfId="26" priority="2">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G51">
+  <conditionalFormatting sqref="G3:G52">
     <cfRule type="notContainsBlanks" dxfId="25" priority="3">
       <formula>LEN(TRIM(G3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F51">
+  <conditionalFormatting sqref="E3:F52">
     <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F51">
+  <conditionalFormatting sqref="E3:F52">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4668,64 +4759,64 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="18" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.26953125" customWidth="1"/>
+    <col min="3" max="3" width="44.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="5" max="6" width="5.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="18" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="65"/>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="72"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="51">
         <v>2010</v>
       </c>
@@ -4747,7 +4838,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1">
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="51">
         <v>2011</v>
       </c>
@@ -4775,7 +4866,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1">
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51">
         <v>2011</v>
       </c>
@@ -4803,7 +4894,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1">
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51">
         <v>2011</v>
       </c>
@@ -4831,7 +4922,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51">
         <v>2011</v>
       </c>
@@ -4859,7 +4950,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1">
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51">
         <v>2011</v>
       </c>
@@ -4887,7 +4978,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51">
         <v>2011</v>
       </c>
@@ -4915,7 +5006,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1">
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="51">
         <v>2011</v>
       </c>
@@ -4944,7 +5035,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1">
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51">
         <v>2011</v>
       </c>
@@ -4972,7 +5063,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1">
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="51">
         <v>2011</v>
       </c>
@@ -4998,7 +5089,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="27" customHeight="1">
+    <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="51">
         <v>2012</v>
       </c>
@@ -5026,7 +5117,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1">
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="51">
         <v>2012</v>
       </c>
@@ -5054,7 +5145,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1">
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="51">
         <v>2012</v>
       </c>
@@ -5082,7 +5173,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.5" customHeight="1">
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="51">
         <v>2012</v>
       </c>
@@ -5110,7 +5201,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1">
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="51">
         <v>2012</v>
       </c>
@@ -5138,7 +5229,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1">
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="51">
         <v>2012</v>
       </c>
@@ -5166,7 +5257,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="51">
         <v>2012</v>
       </c>
@@ -5194,7 +5285,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1">
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="51">
         <v>2012</v>
       </c>
@@ -5222,7 +5313,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1">
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="51">
         <v>2012</v>
       </c>
@@ -5250,7 +5341,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.5" customHeight="1">
+    <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="51">
         <v>2012</v>
       </c>
@@ -5278,7 +5369,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="56" customFormat="1" ht="28.5" customHeight="1">
+    <row r="23" spans="1:8" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="58">
         <v>2013</v>
       </c>
@@ -5306,7 +5397,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="56" customFormat="1" ht="28.5" customHeight="1">
+    <row r="24" spans="1:8" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="58">
         <v>2013</v>
       </c>
@@ -5334,7 +5425,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1">
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="51">
         <v>2013</v>
       </c>
@@ -5362,7 +5453,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1">
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="51">
         <v>2013</v>
       </c>
@@ -5390,7 +5481,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.5" customHeight="1">
+    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="51">
         <v>2013</v>
       </c>
@@ -5418,7 +5509,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.5" customHeight="1">
+    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="51">
         <v>2013</v>
       </c>
@@ -5446,7 +5537,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1">
+    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="51">
         <v>2013</v>
       </c>
@@ -5474,7 +5565,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.5" customHeight="1">
+    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="51">
         <v>2013</v>
       </c>
@@ -5502,7 +5593,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.5" customHeight="1">
+    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="51">
         <v>2013</v>
       </c>
@@ -5530,7 +5621,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.5" customHeight="1">
+    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="51">
         <v>2013</v>
       </c>
@@ -5558,7 +5649,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="42.75" customHeight="1">
+    <row r="33" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="51">
         <v>2013</v>
       </c>
@@ -5586,7 +5677,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.5" customHeight="1">
+    <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="51">
         <v>2013</v>
       </c>
@@ -5612,7 +5703,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.5" customHeight="1">
+    <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="51">
         <v>2014</v>
       </c>
@@ -5640,7 +5731,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.5" customHeight="1">
+    <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="51">
         <v>2014</v>
       </c>
@@ -5668,7 +5759,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.5" customHeight="1">
+    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="51">
         <v>2014</v>
       </c>
@@ -5696,7 +5787,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.5" customHeight="1">
+    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="51">
         <v>2014</v>
       </c>
@@ -5724,7 +5815,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.5" customHeight="1">
+    <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="51">
         <v>2014</v>
       </c>
@@ -5752,7 +5843,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.5" customHeight="1">
+    <row r="40" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="51">
         <v>2014</v>
       </c>
@@ -5780,7 +5871,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.5" customHeight="1">
+    <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="51">
         <v>2014</v>
       </c>
@@ -5808,7 +5899,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.5" customHeight="1">
+    <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="51">
         <v>2014</v>
       </c>
@@ -5836,7 +5927,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="35.25" customHeight="1">
+    <row r="43" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="51">
         <v>2014</v>
       </c>
@@ -5864,7 +5955,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="35.25" customHeight="1">
+    <row r="44" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="51">
         <v>2014</v>
       </c>
@@ -5892,7 +5983,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.5" customHeight="1">
+    <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="51">
         <v>2015</v>
       </c>
@@ -5920,7 +6011,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.5" customHeight="1">
+    <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="51">
         <v>2015</v>
       </c>
@@ -5948,7 +6039,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.5" customHeight="1">
+    <row r="47" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="51">
         <v>2015</v>
       </c>
@@ -5976,7 +6067,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.5" customHeight="1">
+    <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="51">
         <v>2015</v>
       </c>
@@ -6004,7 +6095,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.5" customHeight="1">
+    <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="51">
         <v>2015</v>
       </c>
@@ -6032,7 +6123,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.5" customHeight="1">
+    <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="51">
         <v>2015</v>
       </c>
@@ -6060,7 +6151,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.5" customHeight="1">
+    <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="51">
         <v>2015</v>
       </c>
@@ -6088,7 +6179,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.5" customHeight="1">
+    <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="51">
         <v>2015</v>
       </c>
@@ -6116,7 +6207,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13.5" customHeight="1">
+    <row r="53" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="51">
         <v>2015</v>
       </c>
@@ -6144,7 +6235,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="13.5" customHeight="1">
+    <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="51">
         <v>2016</v>
       </c>
@@ -6172,7 +6263,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13.5" customHeight="1">
+    <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="51">
         <v>2016</v>
       </c>
@@ -6200,7 +6291,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.5" customHeight="1">
+    <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="51">
         <v>2016</v>
       </c>
@@ -6228,7 +6319,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.5" customHeight="1">
+    <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="51">
         <v>2016</v>
       </c>
@@ -6256,7 +6347,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="29.25" customHeight="1">
+    <row r="58" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="51">
         <v>2018</v>
       </c>
@@ -6284,7 +6375,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="29.25" customHeight="1">
+    <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="51">
         <v>2018</v>
       </c>
@@ -6443,65 +6534,65 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I82" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I88" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="18" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="5" max="6" width="6.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="18" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="67" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="65"/>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2000</v>
       </c>
@@ -6529,7 +6620,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2001</v>
       </c>
@@ -6557,7 +6648,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2002</v>
       </c>
@@ -6585,7 +6676,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2002</v>
       </c>
@@ -6614,7 +6705,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2002</v>
       </c>
@@ -6642,7 +6733,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>2002</v>
       </c>
@@ -6670,7 +6761,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>2002</v>
       </c>
@@ -6698,7 +6789,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2002</v>
       </c>
@@ -6726,7 +6817,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1">
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2002</v>
       </c>
@@ -6754,7 +6845,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1">
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2002</v>
       </c>
@@ -6782,7 +6873,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1">
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2002</v>
       </c>
@@ -6810,7 +6901,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1">
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2002</v>
       </c>
@@ -6838,7 +6929,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1">
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2003</v>
       </c>
@@ -6866,7 +6957,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1">
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2003</v>
       </c>
@@ -6894,7 +6985,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2003</v>
       </c>
@@ -6922,7 +7013,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2003</v>
       </c>
@@ -6950,7 +7041,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2004</v>
       </c>
@@ -6978,7 +7069,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>2004</v>
       </c>
@@ -7006,7 +7097,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>2004</v>
       </c>
@@ -7034,7 +7125,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2005</v>
       </c>
@@ -7062,7 +7153,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>2005</v>
       </c>
@@ -7090,7 +7181,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>2005</v>
       </c>
@@ -7118,7 +7209,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>2005</v>
       </c>
@@ -7146,7 +7237,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>2005</v>
       </c>
@@ -7174,7 +7265,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>2005</v>
       </c>
@@ -7202,7 +7293,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1">
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>2005</v>
       </c>
@@ -7230,7 +7321,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1">
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>2005</v>
       </c>
@@ -7258,7 +7349,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1">
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>2005</v>
       </c>
@@ -7286,7 +7377,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1">
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>2005</v>
       </c>
@@ -7314,7 +7405,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1">
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>2005</v>
       </c>
@@ -7342,7 +7433,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>2006</v>
       </c>
@@ -7370,7 +7461,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>2006</v>
       </c>
@@ -7398,7 +7489,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>2006</v>
       </c>
@@ -7426,7 +7517,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>2006</v>
       </c>
@@ -7454,7 +7545,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>2006</v>
       </c>
@@ -7482,7 +7573,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>2006</v>
       </c>
@@ -7510,7 +7601,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>2006</v>
       </c>
@@ -7538,7 +7629,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1">
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>2006</v>
       </c>
@@ -7566,7 +7657,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1">
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>2007</v>
       </c>
@@ -7594,7 +7685,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1">
+    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>2007</v>
       </c>
@@ -7622,7 +7713,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1">
+    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2007</v>
       </c>
@@ -7650,7 +7741,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1">
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>2007</v>
       </c>
@@ -7678,7 +7769,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="12.75" customHeight="1">
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>2007</v>
       </c>
@@ -7706,7 +7797,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="12.75" customHeight="1">
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>2007</v>
       </c>
@@ -7734,7 +7825,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="12.75" customHeight="1">
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>2007</v>
       </c>
@@ -7762,7 +7853,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1">
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>2007</v>
       </c>
@@ -7790,7 +7881,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="12.75" customHeight="1">
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>2007</v>
       </c>
@@ -7818,7 +7909,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="12.75" customHeight="1">
+    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>2008</v>
       </c>
@@ -7846,7 +7937,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="12.75" customHeight="1">
+    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>2008</v>
       </c>
@@ -7874,7 +7965,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="12.75" customHeight="1">
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>2008</v>
       </c>
@@ -7902,7 +7993,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="12.75" customHeight="1">
+    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>2008</v>
       </c>
@@ -7930,7 +8021,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="12.75" customHeight="1">
+    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>2008</v>
       </c>
@@ -7958,7 +8049,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="12.75" customHeight="1">
+    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>2008</v>
       </c>
@@ -7986,7 +8077,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="12.75" customHeight="1">
+    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>2008</v>
       </c>
@@ -8014,7 +8105,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="12.75" customHeight="1">
+    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>2008</v>
       </c>
@@ -8042,7 +8133,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="12.75" customHeight="1">
+    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>2009</v>
       </c>
@@ -8070,7 +8161,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="12.75" customHeight="1">
+    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>2009</v>
       </c>
@@ -8098,7 +8189,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="12.75" customHeight="1">
+    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>2009</v>
       </c>
@@ -8126,7 +8217,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="12.75" customHeight="1">
+    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>2009</v>
       </c>
@@ -8154,7 +8245,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="12.75" customHeight="1">
+    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>2009</v>
       </c>
@@ -8182,7 +8273,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="12.75" customHeight="1">
+    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>2009</v>
       </c>
@@ -8210,7 +8301,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="12.75" customHeight="1">
+    <row r="64" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>2009</v>
       </c>
@@ -8238,7 +8329,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="12.75" customHeight="1">
+    <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>2009</v>
       </c>
@@ -8266,7 +8357,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="12.75" customHeight="1">
+    <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>2009</v>
       </c>
@@ -8294,7 +8385,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="12.75" customHeight="1">
+    <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>2010</v>
       </c>
@@ -8322,7 +8413,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="12.75" customHeight="1">
+    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>2010</v>
       </c>
@@ -8350,7 +8441,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="12.75" customHeight="1">
+    <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>2010</v>
       </c>
@@ -8376,7 +8467,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="12.75" customHeight="1">
+    <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>2010</v>
       </c>
@@ -8404,7 +8495,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="12.75" customHeight="1">
+    <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>2010</v>
       </c>
@@ -8432,7 +8523,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="12.75" customHeight="1">
+    <row r="72" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>2010</v>
       </c>
@@ -8460,7 +8551,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="12.75" customHeight="1">
+    <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>2010</v>
       </c>
@@ -8488,7 +8579,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="12.75" customHeight="1">
+    <row r="74" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>2011</v>
       </c>
@@ -8516,7 +8607,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="12.75" customHeight="1">
+    <row r="75" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>2011</v>
       </c>
@@ -8544,7 +8635,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="12.75" customHeight="1">
+    <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>2011</v>
       </c>
@@ -8572,7 +8663,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="12.75" customHeight="1">
+    <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>2011</v>
       </c>
@@ -8600,7 +8691,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="12.75" customHeight="1">
+    <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>2012</v>
       </c>
@@ -8628,7 +8719,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="12.75" customHeight="1">
+    <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>2013</v>
       </c>
@@ -8656,7 +8747,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="12.75" customHeight="1">
+    <row r="80" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>2013</v>
       </c>
@@ -8684,7 +8775,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="12.75" customHeight="1">
+    <row r="81" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>2014</v>
       </c>
@@ -8712,7 +8803,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="12.75" customHeight="1">
+    <row r="82" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>2014</v>
       </c>
@@ -8740,7 +8831,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="12.75" customHeight="1">
+    <row r="83" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>2014</v>
       </c>
@@ -8768,7 +8859,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="12.75" customHeight="1">
+    <row r="84" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>2014</v>
       </c>
@@ -8796,7 +8887,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="12.75" customHeight="1">
+    <row r="85" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>2014</v>
       </c>
@@ -8824,7 +8915,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="12.75" customHeight="1">
+    <row r="86" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>2014</v>
       </c>
@@ -8852,7 +8943,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30.75" customHeight="1">
+    <row r="87" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="30">
         <v>2015</v>
       </c>
@@ -8880,7 +8971,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="27" customHeight="1">
+    <row r="88" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="30">
         <v>2015</v>
       </c>
@@ -8905,7 +8996,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="12.75" customHeight="1">
+    <row r="89" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>2015</v>
       </c>
@@ -8933,7 +9024,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="12.75" customHeight="1">
+    <row r="90" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>2016</v>
       </c>
@@ -8961,7 +9052,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="14.25" customHeight="1">
+    <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>2016</v>
       </c>
@@ -8989,7 +9080,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>2016</v>
       </c>
@@ -9017,7 +9108,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>2016</v>
       </c>
@@ -9045,7 +9136,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>2016</v>
       </c>
@@ -9073,7 +9164,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>2016</v>
       </c>
@@ -9101,7 +9192,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>2017</v>
       </c>
@@ -9129,7 +9220,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>2017</v>
       </c>
@@ -9157,7 +9248,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>2017</v>
       </c>
@@ -9185,7 +9276,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" customHeight="1">
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>2018</v>
       </c>
@@ -9213,7 +9304,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" customHeight="1">
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>2018</v>
       </c>
@@ -9233,11 +9324,174 @@
         <v>13</v>
       </c>
       <c r="G100" s="11" t="str">
-        <f t="shared" ref="G100" si="6">IF(OR(AND(E100&gt;0,F100&gt;0),AND(E100&gt;0,F100="-"),AND(F100&gt;0,E100="-")),"OK",IF(OR(AND(E100=0,F100=0),AND(E100=0,F100="-"),AND(F100=0,E100="-")),"!!!!!!!!!!",""))</f>
+        <f t="shared" ref="G100:G107" si="6">IF(OR(AND(E100&gt;0,F100&gt;0),AND(E100&gt;0,F100="-"),AND(F100&gt;0,E100="-")),"OK",IF(OR(AND(E100=0,F100=0),AND(E100=0,F100="-"),AND(F100=0,E100="-")),"!!!!!!!!!!",""))</f>
         <v>OK</v>
       </c>
       <c r="H100" s="13" t="str">
-        <f t="shared" ref="H100" si="7">IF(OR(AND(E100&gt;1,E100&lt;&gt;"-"),AND(F100&gt;1,F100&lt;&gt;"-")),"Есть на обмен","")</f>
+        <f t="shared" ref="H100:H108" si="7">IF(OR(AND(E100&gt;1,E100&lt;&gt;"-"),AND(F100&gt;1,F100&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="E101" s="24">
+        <v>2</v>
+      </c>
+      <c r="F101" s="28"/>
+      <c r="G101" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H101" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="D102" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="E102" s="24">
+        <v>1</v>
+      </c>
+      <c r="F102" s="28"/>
+      <c r="G102" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H102" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D103" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="E103" s="24">
+        <v>2</v>
+      </c>
+      <c r="F103" s="28"/>
+      <c r="G103" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H103" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B104" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D104" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="E104" s="24"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="H104" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="H105" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="H106" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>!!!!!!!!!!</v>
+      </c>
+      <c r="H107" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="3"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="13" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -9265,12 +9519,12 @@
       <formula>LEN(TRIM(G3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G96:G98 F57 E3:F56 E58:F100">
+  <conditionalFormatting sqref="G96:G98 F57 E3:F56 E58:F108">
     <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G96:G98 F57 E3:F56 E58:F100">
+  <conditionalFormatting sqref="G96:G98 F57 E3:F56 E58:F108">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9299,27 +9553,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99:G100">
+  <conditionalFormatting sqref="G99:G108">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(G99))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99:G100">
+  <conditionalFormatting sqref="G99:G108">
     <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(G99))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99:G100">
+  <conditionalFormatting sqref="G99:G108">
     <cfRule type="notContainsBlanks" dxfId="5" priority="3">
       <formula>LEN(TRIM(G99))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99:G100">
+  <conditionalFormatting sqref="G99:G108">
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G99))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99:G100">
+  <conditionalFormatting sqref="G99:G108">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9338,63 +9592,63 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="5" max="6" width="6.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="18" width="8.7109375" customWidth="1"/>
+    <col min="9" max="18" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="65"/>
+    <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+      <c r="G2" s="64"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2011</v>
       </c>
@@ -9422,7 +9676,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2011</v>
       </c>
@@ -9451,7 +9705,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2012</v>
       </c>
@@ -9479,7 +9733,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2012</v>
       </c>
@@ -9507,7 +9761,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2013</v>
       </c>
@@ -9535,7 +9789,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="29.25" customHeight="1">
+    <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>2013</v>
       </c>
@@ -9563,7 +9817,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>2013</v>
       </c>
@@ -9591,7 +9845,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2013</v>
       </c>
@@ -9619,8 +9873,8 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A11" s="3">
+    <row r="11" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="30">
         <v>2017</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -9641,7 +9895,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1">
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2018</v>
       </c>
@@ -9666,7 +9920,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1">
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2018</v>
       </c>
@@ -9691,7 +9945,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1">
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2018</v>
       </c>
@@ -9716,7 +9970,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1">
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2018</v>
       </c>
@@ -9741,7 +9995,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1">
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2018</v>
       </c>
@@ -9766,7 +10020,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1">
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2018</v>
       </c>
@@ -9791,7 +10045,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1">
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2017</v>
       </c>
@@ -9816,7 +10070,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2017</v>
       </c>
@@ -9841,7 +10095,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1">
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>2017</v>
       </c>
@@ -9866,7 +10120,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>2017</v>
       </c>
@@ -9891,7 +10145,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2017</v>
       </c>
@@ -9914,7 +10168,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>2018</v>
       </c>
@@ -9937,7 +10191,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>2018</v>
       </c>
@@ -9958,7 +10212,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>2018</v>
       </c>
@@ -9978,6 +10232,63 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+    </row>
+    <row r="26" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="30">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="D26" s="38">
+        <v>5000000</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9988,27 +10299,27 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G25">
+  <conditionalFormatting sqref="G3:G30">
     <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G25">
+  <conditionalFormatting sqref="G3:G30">
     <cfRule type="containsBlanks" dxfId="2" priority="10">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G25">
+  <conditionalFormatting sqref="G3:G30">
     <cfRule type="notContainsBlanks" dxfId="1" priority="11">
       <formula>LEN(TRIM(G3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F25">
+  <conditionalFormatting sqref="E3:F30">
     <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F25">
+  <conditionalFormatting sqref="E3:F30">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10027,90 +10338,130 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="61.453125" customWidth="1"/>
     <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="50.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="40" t="s">
         <v>287</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="59" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>297</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="61" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>292</v>
+      <c r="B4" s="59" t="s">
+        <v>296</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>291</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>294</v>
+      <c r="B5" s="59" t="s">
+        <v>292</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
+        <v>293</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>296</v>
+      <c r="B6" s="60" t="s">
+        <v>294</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>295</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
+      <c r="B7" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G16" s="59"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2" location="dvpyat-rubley"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Collections/РФ/Юбилейные монеты России из недрагоценных металлов 1999 - н.в..xlsx
+++ b/Collections/РФ/Юбилейные монеты России из недрагоценных металлов 1999 - н.в..xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\РФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\РФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10335" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1 рубль" sheetId="1" r:id="rId1"/>
@@ -2203,20 +2203,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-    <col min="3" max="3" width="35.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="5" max="6" width="6.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" customWidth="1"/>
-    <col min="10" max="19" width="5.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="19" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64"/>
       <c r="B2" s="69"/>
       <c r="C2" s="64"/>
@@ -2254,7 +2254,7 @@
       <c r="G2" s="64"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1999</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2001</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2014</v>
       </c>
@@ -2342,19 +2342,19 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
@@ -2410,20 +2410,20 @@
       <selection pane="topRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="47.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="5" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" customWidth="1"/>
-    <col min="9" max="9" width="6.26953125" customWidth="1"/>
-    <col min="10" max="18" width="5.7265625" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="18" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="64"/>
       <c r="B2" s="64"/>
       <c r="C2" s="70"/>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="G2" s="71"/>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2000</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2000</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2000</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2000</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2000</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2000</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2001</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2012</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2012</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2012</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2012</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2012</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2012</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2012</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2012</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2012</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2012</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2012</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2012</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2012</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2012</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2012</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2012</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2012</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2017</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2017</v>
       </c>
@@ -3264,26 +3264,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
-    <col min="5" max="6" width="6.7265625" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" customWidth="1"/>
-    <col min="9" max="18" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64"/>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="G2" s="64"/>
     </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2012</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2012</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2012</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2012</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2012</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2012</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2012</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2012</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2012</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2012</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2014</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2014</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2014</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2014</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2014</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2014</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2015</v>
       </c>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2014</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2014</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2014</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2014</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2014</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2014</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2014</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2014</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2014</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2014</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2014</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2015</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2015</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2015</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2015</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2015</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2015</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2016</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2016</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2016</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2016</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2016</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2016</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2016</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2016</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2016</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2016</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2016</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2016</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2016</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2016</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2016</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2019</v>
       </c>
@@ -4769,19 +4769,19 @@
       <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.26953125" customWidth="1"/>
-    <col min="3" max="3" width="44.1796875" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
-    <col min="5" max="6" width="5.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
-    <col min="9" max="18" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72"/>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -4816,7 +4816,7 @@
       <c r="G2" s="64"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51">
         <v>2010</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="51">
         <v>2011</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51">
         <v>2011</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="51">
         <v>2011</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51">
         <v>2011</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51">
         <v>2011</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51">
         <v>2011</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51">
         <v>2011</v>
       </c>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51">
         <v>2011</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="51">
         <v>2011</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51">
         <v>2012</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51">
         <v>2012</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51">
         <v>2012</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51">
         <v>2012</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51">
         <v>2012</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51">
         <v>2012</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51">
         <v>2012</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51">
         <v>2012</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51">
         <v>2012</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51">
         <v>2012</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
         <v>2013</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="56" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58">
         <v>2013</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51">
         <v>2013</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51">
         <v>2013</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51">
         <v>2013</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51">
         <v>2013</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51">
         <v>2013</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51">
         <v>2013</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51">
         <v>2013</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51">
         <v>2013</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51">
         <v>2013</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51">
         <v>2013</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51">
         <v>2014</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51">
         <v>2014</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51">
         <v>2014</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51">
         <v>2014</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="51">
         <v>2014</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51">
         <v>2014</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51">
         <v>2014</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="51">
         <v>2014</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="51">
         <v>2014</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="51">
         <v>2014</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="51">
         <v>2015</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="51">
         <v>2015</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="51">
         <v>2015</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="51">
         <v>2015</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="51">
         <v>2015</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="51">
         <v>2015</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="51">
         <v>2015</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51">
         <v>2015</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="51">
         <v>2015</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="51">
         <v>2016</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="51">
         <v>2016</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="51">
         <v>2016</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="51">
         <v>2016</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="51">
         <v>2018</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="51">
         <v>2018</v>
       </c>
@@ -6537,26 +6537,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I88" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F105" sqref="F105"/>
+      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="30.26953125" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="5" max="6" width="6.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
-    <col min="9" max="18" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64"/>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -6592,7 +6592,7 @@
       <c r="G2" s="64"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2000</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2001</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2002</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2002</v>
       </c>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2002</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2002</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2002</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2002</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2002</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2002</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2002</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2002</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2003</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2003</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2003</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2003</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2004</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2004</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2004</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2005</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2005</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2005</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2005</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2005</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2005</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2005</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2005</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2005</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2005</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2005</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2006</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2006</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2006</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2006</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2006</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2006</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2006</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2006</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2007</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2007</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2007</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2007</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2007</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2007</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2007</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2007</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2007</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2008</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2008</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2008</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2008</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2008</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2008</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2008</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2008</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2009</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2009</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2009</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2009</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2009</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>2009</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>2009</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>2009</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2009</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>2010</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2010</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2010</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2010</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2010</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2010</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2010</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2011</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>2011</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2011</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>2011</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2012</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2013</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2013</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2014</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>2014</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>2014</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2014</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>2014</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>2014</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30">
         <v>2015</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30">
         <v>2015</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>2015</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>2016</v>
       </c>
@@ -9041,18 +9041,18 @@
         <v>13</v>
       </c>
       <c r="F90" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H90" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>2016</v>
       </c>
@@ -9066,21 +9066,21 @@
         <v>10000000</v>
       </c>
       <c r="E91" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="28" t="s">
         <v>13</v>
       </c>
       <c r="G91" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H91" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2016</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>2016</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>2016</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2016</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>2017</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2017</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>2017</v>
       </c>
@@ -9262,21 +9262,21 @@
         <v>5000000</v>
       </c>
       <c r="E98" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="28" t="s">
         <v>13</v>
       </c>
       <c r="G98" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H98" s="13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2018</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>2018</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>2019</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>2019</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>2019</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>2020</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="39"/>
@@ -9450,7 +9450,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="16"/>
@@ -9466,7 +9466,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="16"/>
@@ -9482,7 +9482,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="16"/>
@@ -9602,19 +9602,19 @@
       <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
-    <col min="3" max="3" width="46.453125" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
-    <col min="5" max="6" width="6.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="18" width="8.7265625" customWidth="1"/>
+    <col min="9" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64"/>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="G2" s="64"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2011</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2011</v>
       </c>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2012</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2012</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2013</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2013</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2013</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2013</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>2017</v>
       </c>
@@ -9895,7 +9895,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2018</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2018</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2018</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2018</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2018</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2018</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2017</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2017</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2017</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2017</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2017</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2018</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2018</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2018</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>2019</v>
       </c>
@@ -10248,7 +10248,7 @@
       <c r="F26" s="43"/>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2019</v>
       </c>
@@ -10263,7 +10263,7 @@
       <c r="F27" s="43"/>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="39"/>
@@ -10272,7 +10272,7 @@
       <c r="F28" s="43"/>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="39"/>
@@ -10281,7 +10281,7 @@
       <c r="F29" s="43"/>
       <c r="G29" s="27"/>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="39"/>
@@ -10345,16 +10345,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="1"/>
-    <col min="2" max="2" width="61.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
     <col min="3" max="3" width="51" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="50.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="40" t="s">
         <v>287</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G16" s="59"/>
     </row>
   </sheetData>

--- a/Collections/РФ/Юбилейные монеты России из недрагоценных металлов 1999 - н.в..xlsx
+++ b/Collections/РФ/Юбилейные монеты России из недрагоценных металлов 1999 - н.в..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10335" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1 рубль" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="315">
   <si>
     <t>Год</t>
   </si>
@@ -1120,6 +1120,9 @@
   </si>
   <si>
     <t>n&lt;1 000 000</t>
+  </si>
+  <si>
+    <t>25-летие Конституции РФ</t>
   </si>
 </sst>
 </file>
@@ -2407,7 +2410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H28" sqref="H28"/>
+      <selection pane="topRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2668,14 +2671,14 @@
         <v>26</v>
       </c>
       <c r="E10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="12">
         <v>1</v>
       </c>
       <c r="G10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>OK</v>
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" si="1"/>
@@ -3265,10 +3268,10 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:H50"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4140,14 +4143,14 @@
         <v>60</v>
       </c>
       <c r="E32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="11" t="str">
         <f t="shared" ref="G32" si="4">IF(OR(AND(E32&gt;0,F32&gt;0),AND(E32&gt;0,F32="-"),AND(F32&gt;0,E32="-")),"OK",IF(OR(AND(E32=0,F32=0),AND(E32=0,F32="-"),AND(F32=0,E32="-")),"!!!!!!!!!!",""))</f>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H32" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4168,14 +4171,14 @@
         <v>60</v>
       </c>
       <c r="E33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="11" t="str">
         <f t="shared" ref="G33:G40" si="5">IF(OR(AND(E33&gt;0,F33&gt;0),AND(E33&gt;0,F33="-"),AND(F33&gt;0,E33="-")),"OK",IF(OR(AND(E33=0,F33=0),AND(E33=0,F33="-"),AND(F33=0,E33="-")),"!!!!!!!!!!",""))</f>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H33" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4196,14 +4199,14 @@
         <v>60</v>
       </c>
       <c r="E34" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H34" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4224,14 +4227,14 @@
         <v>60</v>
       </c>
       <c r="E35" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H35" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4252,14 +4255,14 @@
         <v>60</v>
       </c>
       <c r="E36" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H36" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4280,14 +4283,14 @@
         <v>60</v>
       </c>
       <c r="E37" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H37" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4308,14 +4311,14 @@
         <v>60</v>
       </c>
       <c r="E38" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H38" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4336,14 +4339,14 @@
         <v>60</v>
       </c>
       <c r="E39" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H39" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4364,14 +4367,14 @@
         <v>60</v>
       </c>
       <c r="E40" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H40" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4392,14 +4395,14 @@
         <v>60</v>
       </c>
       <c r="E41" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="11" t="str">
         <f t="shared" ref="G41:G43" si="6">IF(OR(AND(E41&gt;0,F41&gt;0),AND(E41&gt;0,F41="-"),AND(F41&gt;0,E41="-")),"OK",IF(OR(AND(E41=0,F41=0),AND(E41=0,F41="-"),AND(F41=0,E41="-")),"!!!!!!!!!!",""))</f>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H41" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4420,14 +4423,14 @@
         <v>60</v>
       </c>
       <c r="E42" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H42" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4448,14 +4451,14 @@
         <v>60</v>
       </c>
       <c r="E43" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H43" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4476,14 +4479,14 @@
         <v>60</v>
       </c>
       <c r="E44" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="11" t="str">
         <f t="shared" ref="G44:G52" si="7">IF(OR(AND(E44&gt;0,F44&gt;0),AND(E44&gt;0,F44="-"),AND(F44&gt;0,E44="-")),"OK",IF(OR(AND(E44=0,F44=0),AND(E44=0,F44="-"),AND(F44=0,E44="-")),"!!!!!!!!!!",""))</f>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H44" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4504,14 +4507,14 @@
         <v>60</v>
       </c>
       <c r="E45" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H45" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4532,14 +4535,14 @@
         <v>60</v>
       </c>
       <c r="E46" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H46" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4560,14 +4563,14 @@
         <v>60</v>
       </c>
       <c r="E47" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H47" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4588,14 +4591,14 @@
         <v>60</v>
       </c>
       <c r="E48" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H48" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4644,14 +4647,14 @@
         <v>60</v>
       </c>
       <c r="E50" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H50" s="13" t="str">
         <f t="shared" si="2"/>
@@ -4762,11 +4765,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6028,11 +6031,11 @@
         <v>13</v>
       </c>
       <c r="F46" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H46" s="13" t="str">
         <f t="shared" si="1"/>
@@ -6168,11 +6171,11 @@
         <v>13</v>
       </c>
       <c r="F51" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H51" s="13" t="str">
         <f t="shared" si="1"/>
@@ -6196,11 +6199,11 @@
         <v>13</v>
       </c>
       <c r="F52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>!!!!!!!!!!</v>
+        <v>OK</v>
       </c>
       <c r="H52" s="13" t="str">
         <f t="shared" si="1"/>
@@ -6537,8 +6540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I78" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
@@ -9593,13 +9596,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10233,41 +10236,52 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="25">
+        <v>4</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
         <v>2019</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="39" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D27" s="38">
         <v>5000000</v>
-      </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>313</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="43"/>
       <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3">
+        <v>2019</v>
+      </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="38"/>
+      <c r="C28" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>313</v>
+      </c>
       <c r="E28" s="42"/>
       <c r="F28" s="43"/>
       <c r="G28" s="27"/>
@@ -10289,6 +10303,15 @@
       <c r="E30" s="42"/>
       <c r="F30" s="43"/>
       <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10299,27 +10322,27 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G30">
+  <conditionalFormatting sqref="G3:G31">
     <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G30">
+  <conditionalFormatting sqref="G3:G31">
     <cfRule type="containsBlanks" dxfId="2" priority="10">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G30">
+  <conditionalFormatting sqref="G3:G31">
     <cfRule type="notContainsBlanks" dxfId="1" priority="11">
       <formula>LEN(TRIM(G3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30">
+  <conditionalFormatting sqref="E3:F31">
     <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F30">
+  <conditionalFormatting sqref="E3:F31">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10342,7 +10365,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Collections/РФ/Юбилейные монеты России из недрагоценных металлов 1999 - н.в..xlsx
+++ b/Collections/РФ/Юбилейные монеты России из недрагоценных металлов 1999 - н.в..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10335" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10335" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 рубль" sheetId="1" r:id="rId1"/>
@@ -4765,11 +4765,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6544,7 +6544,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
+      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9349,7 +9349,7 @@
         <v>305</v>
       </c>
       <c r="E101" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="11" t="str">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="H101" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>Есть на обмен</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9401,7 +9401,7 @@
         <v>308</v>
       </c>
       <c r="E103" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" s="28"/>
       <c r="G103" s="11" t="str">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="H103" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>Есть на обмен</v>
+        <v/>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9598,11 +9598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10248,7 +10248,7 @@
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>13</v>

--- a/Collections/РФ/Юбилейные монеты России из недрагоценных металлов 1999 - н.в..xlsx
+++ b/Collections/РФ/Юбилейные монеты России из недрагоценных металлов 1999 - н.в..xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\РФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\РФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10335" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1₽ " sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="25₽" sheetId="6" r:id="rId5"/>
     <sheet name="Links" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10₽ '!$A$1:$H$165</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -382,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="332">
   <si>
     <t>-</t>
   </si>
@@ -1766,18 +1769,17 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1795,23 +1797,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1820,6 +1823,15 @@
     <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="44">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2148,15 +2160,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2187,9 +2190,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="43"/>
-    <tableColumn id="2" name="Link" dataDxfId="41" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="42"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2467,41 +2470,41 @@
       <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="23" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="48.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="23" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="53" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="56"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2522,7 +2525,7 @@
       </c>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1999</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2001</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2014</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E6"/>
       <c r="F6"/>
     </row>
@@ -2615,7 +2618,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H3">
-    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2632,7 +2635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2649,7 +2652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2666,7 +2669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H5">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2696,44 +2699,44 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="22" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="36.7265625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="48.7265625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="22" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="25" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="57" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="50"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
@@ -2754,7 +2757,7 @@
       </c>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2000</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2000</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -2838,7 +2841,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2000</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2000</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2000</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2000</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2001</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2001</v>
       </c>
@@ -3001,7 +3004,7 @@
       </c>
       <c r="I11" s="33"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2012</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2012</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2012</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2012</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2012</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2012</v>
       </c>
@@ -3169,7 +3172,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2012</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2012</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2012</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2012</v>
       </c>
@@ -3281,7 +3284,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2012</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2012</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2012</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>2012</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>2012</v>
       </c>
@@ -3421,7 +3424,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>2012</v>
       </c>
@@ -3449,7 +3452,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>2012</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>2017</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>2017</v>
       </c>
@@ -3538,7 +3541,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H30">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3563,47 +3566,47 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="22" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="22" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="25" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="57" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="50"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="47"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="62"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
@@ -3624,7 +3627,7 @@
       </c>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>2012</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>2012</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>2012</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>2012</v>
       </c>
@@ -3736,7 +3739,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>2012</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>2012</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>2012</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>2012</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>2012</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>2012</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>2014</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>2014</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>2014</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>2014</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>2014</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>2014</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>2015</v>
       </c>
@@ -4100,7 +4103,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>2014</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>2014</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <v>2014</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>2014</v>
       </c>
@@ -4212,7 +4215,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>2014</v>
       </c>
@@ -4240,7 +4243,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>2014</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>2014</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>2014</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>2014</v>
       </c>
@@ -4352,7 +4355,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <v>2014</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <v>2014</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <v>2015</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>2015</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <v>2015</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <v>2015</v>
       </c>
@@ -4518,7 +4521,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <v>2015</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>2015</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <v>2016</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <v>2016</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <v>2016</v>
       </c>
@@ -4658,7 +4661,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <v>2016</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <v>2016</v>
       </c>
@@ -4714,7 +4717,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <v>2016</v>
       </c>
@@ -4742,7 +4745,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <v>2016</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <v>2016</v>
       </c>
@@ -4798,7 +4801,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <v>2016</v>
       </c>
@@ -4826,7 +4829,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <v>2016</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <v>2016</v>
       </c>
@@ -4882,7 +4885,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <v>2016</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <v>2016</v>
       </c>
@@ -4938,7 +4941,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
         <v>2016</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
         <v>2016</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
         <v>2019</v>
       </c>
@@ -5018,43 +5021,43 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C58" s="16"/>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C63" s="16"/>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C64" s="16"/>
     </row>
-    <row r="65" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C65" s="16"/>
     </row>
-    <row r="66" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C66" s="16"/>
     </row>
-    <row r="67" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C67" s="16"/>
     </row>
-    <row r="68" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C68" s="16"/>
     </row>
-    <row r="69" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C69" s="16"/>
     </row>
-    <row r="70" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C70" s="16"/>
     </row>
   </sheetData>
@@ -5066,7 +5069,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H52">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5090,47 +5093,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J147" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="24" customWidth="1"/>
-    <col min="2" max="4" width="36.7109375" style="22" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="22" customWidth="1"/>
-    <col min="10" max="18" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="24" customWidth="1"/>
+    <col min="2" max="4" width="36.7265625" style="22" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="25" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="22" customWidth="1"/>
+    <col min="10" max="18" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="57" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="50"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="43" t="s">
         <v>5</v>
       </c>
@@ -5151,7 +5154,7 @@
       </c>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30">
         <v>2000</v>
       </c>
@@ -5179,7 +5182,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30">
         <v>2001</v>
       </c>
@@ -5207,7 +5210,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30">
         <v>2002</v>
       </c>
@@ -5237,7 +5240,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30">
         <v>2002</v>
       </c>
@@ -5267,7 +5270,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30">
         <v>2002</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>2002</v>
       </c>
@@ -5327,7 +5330,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>2002</v>
       </c>
@@ -5357,7 +5360,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <v>2002</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30">
         <v>2002</v>
       </c>
@@ -5417,7 +5420,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>2002</v>
       </c>
@@ -5447,7 +5450,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>2002</v>
       </c>
@@ -5477,7 +5480,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>2002</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>2003</v>
       </c>
@@ -5537,7 +5540,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <v>2003</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>2003</v>
       </c>
@@ -5597,7 +5600,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30">
         <v>2003</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30">
         <v>2004</v>
       </c>
@@ -5657,7 +5660,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="30">
         <v>2004</v>
       </c>
@@ -5687,7 +5690,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30">
         <v>2004</v>
       </c>
@@ -5717,7 +5720,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="30">
         <v>2005</v>
       </c>
@@ -5747,7 +5750,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30">
         <v>2005</v>
       </c>
@@ -5777,7 +5780,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="30">
         <v>2005</v>
       </c>
@@ -5807,7 +5810,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30">
         <v>2005</v>
       </c>
@@ -5837,7 +5840,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30">
         <v>2005</v>
       </c>
@@ -5867,7 +5870,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="30">
         <v>2005</v>
       </c>
@@ -5897,7 +5900,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="30">
         <v>2005</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="30">
         <v>2005</v>
       </c>
@@ -5957,7 +5960,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30">
         <v>2005</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30">
         <v>2005</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="30">
         <v>2005</v>
       </c>
@@ -6047,7 +6050,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="30">
         <v>2006</v>
       </c>
@@ -6077,7 +6080,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="30">
         <v>2006</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="30">
         <v>2006</v>
       </c>
@@ -6137,7 +6140,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>2006</v>
       </c>
@@ -6167,7 +6170,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>2006</v>
       </c>
@@ -6197,7 +6200,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>2006</v>
       </c>
@@ -6227,7 +6230,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>2006</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>2006</v>
       </c>
@@ -6287,7 +6290,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>2007</v>
       </c>
@@ -6317,7 +6320,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>2007</v>
       </c>
@@ -6347,7 +6350,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>2007</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>2007</v>
       </c>
@@ -6407,7 +6410,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>2007</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>2007</v>
       </c>
@@ -6467,7 +6470,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>2007</v>
       </c>
@@ -6497,7 +6500,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>2007</v>
       </c>
@@ -6527,7 +6530,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>2007</v>
       </c>
@@ -6557,7 +6560,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>2008</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>2008</v>
       </c>
@@ -6617,7 +6620,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>2008</v>
       </c>
@@ -6647,7 +6650,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>2008</v>
       </c>
@@ -6677,7 +6680,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>2008</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>2008</v>
       </c>
@@ -6737,7 +6740,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>2008</v>
       </c>
@@ -6767,7 +6770,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>2008</v>
       </c>
@@ -6797,7 +6800,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>2009</v>
       </c>
@@ -6827,7 +6830,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>2009</v>
       </c>
@@ -6857,7 +6860,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>2009</v>
       </c>
@@ -6887,7 +6890,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>2009</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>2009</v>
       </c>
@@ -6947,7 +6950,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>2009</v>
       </c>
@@ -6977,7 +6980,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>2009</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="30">
         <v>2009</v>
       </c>
@@ -7037,7 +7040,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="30">
         <v>2009</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="30">
         <v>2010</v>
       </c>
@@ -7095,7 +7098,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="30">
         <v>2010</v>
       </c>
@@ -7125,7 +7128,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="30">
         <v>2010</v>
       </c>
@@ -7155,16 +7158,14 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="30">
         <v>2010</v>
       </c>
       <c r="B70" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="38" t="s">
-        <v>132</v>
-      </c>
+      <c r="C70" s="38"/>
       <c r="D70" s="38" t="s">
         <v>183</v>
       </c>
@@ -7185,7 +7186,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="30">
         <v>2010</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="30">
         <v>2010</v>
       </c>
@@ -7245,7 +7246,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="30">
         <v>2010</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="30">
         <v>2010</v>
       </c>
@@ -7305,7 +7306,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="30">
         <v>2011</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="30">
         <v>2011</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="30">
         <v>2011</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="30">
         <v>2011</v>
       </c>
@@ -7425,7 +7426,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="30">
         <v>2011</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="30">
         <v>2011</v>
       </c>
@@ -7485,7 +7486,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="30">
         <v>2011</v>
       </c>
@@ -7515,7 +7516,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="30">
         <v>2011</v>
       </c>
@@ -7545,7 +7546,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="30">
         <v>2011</v>
       </c>
@@ -7573,7 +7574,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="30">
         <v>2011</v>
       </c>
@@ -7603,7 +7604,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="30">
         <v>2011</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="30">
         <v>2011</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="30">
         <v>2011</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="30">
         <v>2012</v>
       </c>
@@ -7723,7 +7724,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="30">
         <v>2012</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="30">
         <v>2012</v>
       </c>
@@ -7783,7 +7784,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="30">
         <v>2012</v>
       </c>
@@ -7813,7 +7814,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="30">
         <v>2012</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="30">
         <v>2012</v>
       </c>
@@ -7873,7 +7874,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="30">
         <v>2012</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="30">
         <v>2012</v>
       </c>
@@ -7933,7 +7934,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="30">
         <v>2012</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="30">
         <v>2012</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="30">
         <v>2012</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="30">
         <v>2013</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="30">
         <v>2013</v>
       </c>
@@ -8083,7 +8084,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="30">
         <v>2013</v>
       </c>
@@ -8113,7 +8114,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="30">
         <v>2013</v>
       </c>
@@ -8143,7 +8144,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="30">
         <v>2013</v>
       </c>
@@ -8173,7 +8174,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="30">
         <v>2013</v>
       </c>
@@ -8203,7 +8204,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="30">
         <v>2013</v>
       </c>
@@ -8233,7 +8234,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="30">
         <v>2013</v>
       </c>
@@ -8263,7 +8264,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="30">
         <v>2013</v>
       </c>
@@ -8293,7 +8294,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="30">
         <v>2013</v>
       </c>
@@ -8323,7 +8324,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="30">
         <v>2013</v>
       </c>
@@ -8353,7 +8354,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="30">
         <v>2013</v>
       </c>
@@ -8383,7 +8384,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="30">
         <v>2013</v>
       </c>
@@ -8413,7 +8414,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="30">
         <v>2013</v>
       </c>
@@ -8443,7 +8444,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="30">
         <v>2014</v>
       </c>
@@ -8473,7 +8474,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="30">
         <v>2014</v>
       </c>
@@ -8503,7 +8504,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="30">
         <v>2014</v>
       </c>
@@ -8533,7 +8534,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="30">
         <v>2014</v>
       </c>
@@ -8563,7 +8564,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="30">
         <v>2014</v>
       </c>
@@ -8593,7 +8594,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="30">
         <v>2014</v>
       </c>
@@ -8623,7 +8624,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="30">
         <v>2014</v>
       </c>
@@ -8653,7 +8654,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="30">
         <v>2014</v>
       </c>
@@ -8683,7 +8684,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="30">
         <v>2014</v>
       </c>
@@ -8713,7 +8714,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="30">
         <v>2014</v>
       </c>
@@ -8743,7 +8744,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="30">
         <v>2014</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="30">
         <v>2014</v>
       </c>
@@ -8803,7 +8804,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="30">
         <v>2014</v>
       </c>
@@ -8833,7 +8834,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="30">
         <v>2014</v>
       </c>
@@ -8863,7 +8864,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="30">
         <v>2014</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="30">
         <v>2014</v>
       </c>
@@ -8923,7 +8924,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="30">
         <v>2015</v>
       </c>
@@ -8953,7 +8954,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="30">
         <v>2015</v>
       </c>
@@ -8983,7 +8984,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="30">
         <v>2015</v>
       </c>
@@ -9013,7 +9014,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="30">
         <v>2015</v>
       </c>
@@ -9043,7 +9044,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="30">
         <v>2015</v>
       </c>
@@ -9073,7 +9074,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="30">
         <v>2015</v>
       </c>
@@ -9103,7 +9104,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="30">
         <v>2015</v>
       </c>
@@ -9133,7 +9134,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="30">
         <v>2015</v>
       </c>
@@ -9163,7 +9164,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="30">
         <v>2015</v>
       </c>
@@ -9193,7 +9194,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="30">
         <v>2015</v>
       </c>
@@ -9223,7 +9224,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="30">
         <v>2015</v>
       </c>
@@ -9253,7 +9254,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="30">
         <v>2015</v>
       </c>
@@ -9283,7 +9284,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="30">
         <v>2016</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="30">
         <v>2016</v>
       </c>
@@ -9343,7 +9344,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="30">
         <v>2016</v>
       </c>
@@ -9373,7 +9374,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="30">
         <v>2016</v>
       </c>
@@ -9403,7 +9404,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="30">
         <v>2016</v>
       </c>
@@ -9433,7 +9434,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="30">
         <v>2016</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="30">
         <v>2016</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="30">
         <v>2016</v>
       </c>
@@ -9523,7 +9524,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="30">
         <v>2016</v>
       </c>
@@ -9553,7 +9554,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="30">
         <v>2016</v>
       </c>
@@ -9583,7 +9584,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="30">
         <v>2017</v>
       </c>
@@ -9613,7 +9614,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="30">
         <v>2017</v>
       </c>
@@ -9643,7 +9644,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="30">
         <v>2017</v>
       </c>
@@ -9673,7 +9674,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="30">
         <v>2018</v>
       </c>
@@ -9703,7 +9704,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="30">
         <v>2018</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="30">
         <v>2018</v>
       </c>
@@ -9763,7 +9764,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="30">
         <v>2019</v>
       </c>
@@ -9793,7 +9794,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="30">
         <v>2019</v>
       </c>
@@ -9823,7 +9824,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="30">
         <v>2019</v>
       </c>
@@ -9853,7 +9854,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="30">
         <v>2020</v>
       </c>
@@ -9875,7 +9876,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="30">
         <v>2020</v>
       </c>
@@ -9897,7 +9898,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="30">
         <v>2020</v>
       </c>
@@ -9927,7 +9928,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="30">
         <v>2020</v>
       </c>
@@ -9949,7 +9950,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="30">
         <v>2020</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="30">
         <v>2020</v>
       </c>
@@ -10002,7 +10003,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H165">
-    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -10033,40 +10034,40 @@
       <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="24" customWidth="1"/>
-    <col min="2" max="3" width="48.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="22" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="24" customWidth="1"/>
+    <col min="2" max="3" width="48.7265625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="22" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="25" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="57" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="H1" s="50"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
@@ -10087,7 +10088,7 @@
       </c>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30">
         <v>2011</v>
       </c>
@@ -10115,7 +10116,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30">
         <v>2012</v>
       </c>
@@ -10143,7 +10144,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30">
         <v>2013</v>
       </c>
@@ -10171,7 +10172,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30">
         <v>2014</v>
       </c>
@@ -10199,7 +10200,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30">
         <v>2014</v>
       </c>
@@ -10227,7 +10228,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>2014</v>
       </c>
@@ -10255,7 +10256,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>2014</v>
       </c>
@@ -10283,7 +10284,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <v>2017</v>
       </c>
@@ -10300,7 +10301,7 @@
       <c r="F10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="46">
         <v>0</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -10311,7 +10312,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30">
         <v>2017</v>
       </c>
@@ -10328,7 +10329,7 @@
       <c r="F11" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="46">
         <v>0</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -10339,7 +10340,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>2017</v>
       </c>
@@ -10354,7 +10355,7 @@
       <c r="F12" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="46">
         <v>0</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -10365,7 +10366,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>2017</v>
       </c>
@@ -10380,7 +10381,7 @@
       <c r="F13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="46">
         <v>0</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -10391,7 +10392,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>2018</v>
       </c>
@@ -10406,7 +10407,7 @@
       <c r="F14" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="46">
         <v>3</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -10417,7 +10418,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>2018</v>
       </c>
@@ -10432,7 +10433,7 @@
       <c r="F15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="46">
         <v>0</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -10443,7 +10444,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <v>2018</v>
       </c>
@@ -10460,7 +10461,7 @@
       <c r="F16" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="46">
         <v>0</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -10471,7 +10472,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>2018</v>
       </c>
@@ -10488,7 +10489,7 @@
       <c r="F17" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="46">
         <v>0</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -10499,7 +10500,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30">
         <v>2018</v>
       </c>
@@ -10516,7 +10517,7 @@
       <c r="F18" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G18" s="46">
         <v>0</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -10527,7 +10528,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30">
         <v>2018</v>
       </c>
@@ -10544,7 +10545,7 @@
       <c r="F19" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="46">
         <v>2</v>
       </c>
       <c r="H19" s="12" t="s">
@@ -10555,7 +10556,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="30">
         <v>2019</v>
       </c>
@@ -10572,7 +10573,7 @@
       <c r="F20" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="46">
         <v>0</v>
       </c>
       <c r="H20" s="12" t="s">
@@ -10583,7 +10584,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30">
         <v>2019</v>
       </c>
@@ -10600,7 +10601,7 @@
       <c r="F21" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="46">
         <v>0</v>
       </c>
       <c r="H21" s="12" t="s">
@@ -10611,7 +10612,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="30">
         <v>2019</v>
       </c>
@@ -10628,7 +10629,7 @@
       <c r="F22" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="46">
         <v>0</v>
       </c>
       <c r="H22" s="12" t="s">
@@ -10639,7 +10640,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30">
         <v>2019</v>
       </c>
@@ -10656,7 +10657,7 @@
       <c r="F23" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="46">
         <v>0</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -10667,7 +10668,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="30">
         <v>2019</v>
       </c>
@@ -10684,7 +10685,7 @@
       <c r="F24" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="46">
         <v>0</v>
       </c>
       <c r="H24" s="12" t="s">
@@ -10695,7 +10696,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30">
         <v>2019</v>
       </c>
@@ -10712,7 +10713,7 @@
       <c r="F25" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="59">
+      <c r="G25" s="46">
         <v>0</v>
       </c>
       <c r="H25" s="12" t="s">
@@ -10723,7 +10724,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30">
         <v>2019</v>
       </c>
@@ -10740,7 +10741,7 @@
       <c r="F26" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="59">
+      <c r="G26" s="46">
         <v>0</v>
       </c>
       <c r="H26" s="12" t="s">
@@ -10751,7 +10752,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="30">
         <v>2019</v>
       </c>
@@ -10768,7 +10769,7 @@
       <c r="F27" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="59">
+      <c r="G27" s="46">
         <v>0</v>
       </c>
       <c r="H27" s="12" t="s">
@@ -10779,7 +10780,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="30">
         <v>2019</v>
       </c>
@@ -10796,7 +10797,7 @@
       <c r="F28" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="46">
         <v>0</v>
       </c>
       <c r="H28" s="12" t="s">
@@ -10807,7 +10808,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="30">
         <v>2019</v>
       </c>
@@ -10824,7 +10825,7 @@
       <c r="F29" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="59">
+      <c r="G29" s="46">
         <v>0</v>
       </c>
       <c r="H29" s="12" t="s">
@@ -10835,7 +10836,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30">
         <v>2019</v>
       </c>
@@ -10852,7 +10853,7 @@
       <c r="F30" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="59">
+      <c r="G30" s="46">
         <v>0</v>
       </c>
       <c r="H30" s="12" t="s">
@@ -10863,7 +10864,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30">
         <v>2019</v>
       </c>
@@ -10880,7 +10881,7 @@
       <c r="F31" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G31" s="46">
         <v>0</v>
       </c>
       <c r="H31" s="12" t="s">
@@ -10891,7 +10892,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="30">
         <v>2020</v>
       </c>
@@ -10902,14 +10903,14 @@
       <c r="D32" s="38"/>
       <c r="E32" s="39"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="59"/>
+      <c r="G32" s="46"/>
       <c r="H32" s="12"/>
       <c r="I32" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="30">
         <v>2020</v>
       </c>
@@ -10926,14 +10927,14 @@
       <c r="F33" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="59"/>
+      <c r="G33" s="46"/>
       <c r="H33" s="12"/>
       <c r="I33" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="30">
         <v>2020</v>
       </c>
@@ -10950,14 +10951,14 @@
       <c r="F34" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="59"/>
+      <c r="G34" s="46"/>
       <c r="H34" s="12"/>
       <c r="I34" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="30">
         <v>2020</v>
       </c>
@@ -10974,14 +10975,14 @@
       <c r="F35" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G35" s="59"/>
+      <c r="G35" s="46"/>
       <c r="H35" s="12"/>
       <c r="I35" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>2020</v>
       </c>
@@ -10998,14 +10999,14 @@
       <c r="F36" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G36" s="59"/>
+      <c r="G36" s="46"/>
       <c r="H36" s="12"/>
       <c r="I36" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>2020</v>
       </c>
@@ -11022,14 +11023,14 @@
       <c r="F37" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G37" s="59"/>
+      <c r="G37" s="46"/>
       <c r="H37" s="12"/>
       <c r="I37" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>2020</v>
       </c>
@@ -11046,14 +11047,14 @@
       <c r="F38" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="59"/>
+      <c r="G38" s="46"/>
       <c r="H38" s="12"/>
       <c r="I38" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>2020</v>
       </c>
@@ -11070,14 +11071,14 @@
       <c r="F39" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="59"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="12"/>
       <c r="I39" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>2020</v>
       </c>
@@ -11094,14 +11095,14 @@
       <c r="F40" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="59"/>
+      <c r="G40" s="46"/>
       <c r="H40" s="12"/>
       <c r="I40" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>2020</v>
       </c>
@@ -11118,14 +11119,14 @@
       <c r="F41" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="59"/>
+      <c r="G41" s="46"/>
       <c r="H41" s="12"/>
       <c r="I41" s="33" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>2020</v>
       </c>
@@ -11142,7 +11143,7 @@
       <c r="F42" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="59"/>
+      <c r="G42" s="46"/>
       <c r="H42" s="12"/>
       <c r="I42" s="33" t="str">
         <f t="shared" si="7"/>
@@ -11158,7 +11159,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H10">
-    <cfRule type="containsText" dxfId="33" priority="84" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="84" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -11173,7 +11174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="32" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11190,7 +11191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="containsText" dxfId="31" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -11205,7 +11206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="30" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11222,7 +11223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H12">
-    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -11237,7 +11238,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11254,7 +11255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -11269,7 +11270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="26" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11286,7 +11287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -11301,7 +11302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11318,7 +11319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H16 G18:H18">
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -11333,11 +11334,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16 H18">
-    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16 H18">
+  <conditionalFormatting sqref="H18 H16">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11350,7 +11351,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15 G17:H17 G19:H19">
-    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -11365,11 +11366,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15 H17 H19">
-    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17 H19">
+  <conditionalFormatting sqref="H17 H15 H19">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11382,7 +11383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20">
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -11397,7 +11398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11414,7 +11415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -11429,7 +11430,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11446,7 +11447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -11461,7 +11462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11478,7 +11479,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23 G25:H25 G27:H27 G29:H29 G31:H31">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -11493,11 +11494,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23 H25 H27 H29 H31">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25 H23 H27 H29 H31">
+  <conditionalFormatting sqref="H23 H25 H27 H29 H31">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11510,7 +11511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:H24 G26:H26 G28:H28 G30:H30">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -11525,11 +11526,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 H26 H28 H30">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24 H26 H28 H30">
+  <conditionalFormatting sqref="H26 H24 H28 H30">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11542,7 +11543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H37">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -11557,7 +11558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H37">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11574,7 +11575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:H42">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G38))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -11589,7 +11590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H42">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11606,7 +11607,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:H32">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -11621,7 +11622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11638,7 +11639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:H34">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -11653,7 +11654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11670,7 +11671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -11685,7 +11686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11711,69 +11712,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="50.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="50.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="47" t="s">
         <v>324</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="48" t="s">
         <v>327</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="48" t="s">
         <v>326</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="48" t="s">
         <v>330</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="22"/>
     </row>
   </sheetData>
